--- a/Excel/File/Sample_Insert.xlsx
+++ b/Excel/File/Sample_Insert.xlsx
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F3" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F7" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8"/>
@@ -514,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F13" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -525,10 +525,10 @@
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -536,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -547,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
